--- a/MillCreek/EFCvsMillCreekComplete.xlsx
+++ b/MillCreek/EFCvsMillCreekComplete.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,6 +58,9 @@
     <t>Site Name</t>
   </si>
   <si>
+    <t>Steam</t>
+  </si>
+  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -97,12 +100,21 @@
     <t>ORP</t>
   </si>
   <si>
+    <t>Eh</t>
+  </si>
+  <si>
     <t>Turbidity_NTU</t>
   </si>
   <si>
     <t>DO_mg/L</t>
   </si>
   <si>
+    <t>P_mg/L</t>
+  </si>
+  <si>
+    <t>NH3_mg/L</t>
+  </si>
+  <si>
     <t>Fe_mg/L</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
     <t>Nolensville high school bridge</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>MC0</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t>CSS-3-A</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>CSS-4-A</t>
   </si>
   <si>
@@ -257,24 +275,6 @@
   </si>
   <si>
     <t>Ayers HR 2012</t>
-  </si>
-  <si>
-    <t>Eh</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>P_mg/L</t>
-  </si>
-  <si>
-    <t>NH3_mg/L</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,7 +767,7 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -777,86 +777,86 @@
     <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>35.942900000000002</v>
@@ -868,7 +868,7 @@
         <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>44355</v>
@@ -883,12 +883,12 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>35.953949999999999</v>
@@ -900,7 +900,7 @@
         <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2">
         <v>44355</v>
@@ -937,12 +937,12 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>36.009180000000001</v>
@@ -954,7 +954,7 @@
         <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>44355</v>
@@ -994,12 +994,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>36.090589999999999</v>
@@ -1011,7 +1011,7 @@
         <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>44355</v>
@@ -1054,12 +1054,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>36.119900000000001</v>
@@ -1071,7 +1071,7 @@
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>44355</v>
@@ -1089,12 +1089,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>36.144889999999997</v>
@@ -1106,7 +1106,7 @@
         <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>44355</v>
@@ -1114,12 +1114,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>36.164360000000002</v>
@@ -1131,7 +1131,7 @@
         <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>44355</v>
@@ -1168,12 +1168,12 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>35.953949999999999</v>
@@ -1185,7 +1185,7 @@
         <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2">
         <v>44362</v>
@@ -1240,12 +1240,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>36.009180000000001</v>
@@ -1257,7 +1257,7 @@
         <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>44362</v>
@@ -1312,12 +1312,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>36.090589999999999</v>
@@ -1329,7 +1329,7 @@
         <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2">
         <v>44362</v>
@@ -1381,12 +1381,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>36.119900000000001</v>
@@ -1398,7 +1398,7 @@
         <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G12" s="2">
         <v>44362</v>
@@ -1453,12 +1453,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>36.144889999999997</v>
@@ -1470,7 +1470,7 @@
         <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2">
         <v>44362</v>
@@ -1522,12 +1522,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>36.164360000000002</v>
@@ -1539,7 +1539,7 @@
         <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2">
         <v>44362</v>
@@ -1594,12 +1594,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>36.164360000000002</v>
@@ -1611,7 +1611,7 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2">
         <v>44369</v>
@@ -1666,12 +1666,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>36.144889999999997</v>
@@ -1683,7 +1683,7 @@
         <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2">
         <v>44369</v>
@@ -1738,12 +1738,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>36.119900000000001</v>
@@ -1755,7 +1755,7 @@
         <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2">
         <v>44369</v>
@@ -1810,12 +1810,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>36.090589999999999</v>
@@ -1827,7 +1827,7 @@
         <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2">
         <v>44369</v>
@@ -1879,12 +1879,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>36.009180000000001</v>
@@ -1896,7 +1896,7 @@
         <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2">
         <v>44369</v>
@@ -1951,12 +1951,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>35.953949999999999</v>
@@ -1968,7 +1968,7 @@
         <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2">
         <v>44369</v>
@@ -2023,12 +2023,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>36.164360000000002</v>
@@ -2040,7 +2040,7 @@
         <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2">
         <v>44376</v>
@@ -2095,12 +2095,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>36.144889999999997</v>
@@ -2112,7 +2112,7 @@
         <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2">
         <v>44376</v>
@@ -2167,12 +2167,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>36.119900000000001</v>
@@ -2184,7 +2184,7 @@
         <v>135</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2">
         <v>44376</v>
@@ -2239,12 +2239,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>36.119900000000001</v>
@@ -2256,7 +2256,7 @@
         <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2">
         <v>44376</v>
@@ -2293,12 +2293,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>36.090589999999999</v>
@@ -2310,7 +2310,7 @@
         <v>153</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G25" s="2">
         <v>44376</v>
@@ -2365,12 +2365,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>36.009180000000001</v>
@@ -2382,7 +2382,7 @@
         <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2">
         <v>44376</v>
@@ -2434,12 +2434,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>35.953949999999999</v>
@@ -2451,7 +2451,7 @@
         <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
         <v>44376</v>
@@ -2503,12 +2503,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>36.164360000000002</v>
@@ -2520,7 +2520,7 @@
         <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2">
         <v>44383</v>
@@ -2572,12 +2572,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>36.144889999999997</v>
@@ -2589,7 +2589,7 @@
         <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2">
         <v>44383</v>
@@ -2641,12 +2641,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>36.119900000000001</v>
@@ -2658,7 +2658,7 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2">
         <v>44383</v>
@@ -2713,12 +2713,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>36.090589999999999</v>
@@ -2730,7 +2730,7 @@
         <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G31" s="2">
         <v>44383</v>
@@ -2779,12 +2779,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>36.009180000000001</v>
@@ -2796,7 +2796,7 @@
         <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2">
         <v>44383</v>
@@ -2848,12 +2848,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>35.953949999999999</v>
@@ -2865,7 +2865,7 @@
         <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2">
         <v>44383</v>
@@ -2917,12 +2917,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>36.164360000000002</v>
@@ -2934,7 +2934,7 @@
         <v>117</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G34" s="2">
         <v>44390</v>
@@ -2989,12 +2989,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C35">
         <v>36.144889999999997</v>
@@ -3006,7 +3006,7 @@
         <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2">
         <v>44390</v>
@@ -3061,12 +3061,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>36.119900000000001</v>
@@ -3078,7 +3078,7 @@
         <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G36" s="2">
         <v>44390</v>
@@ -3133,12 +3133,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>36.090589999999999</v>
@@ -3150,7 +3150,7 @@
         <v>153</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2">
         <v>44390</v>
@@ -3205,12 +3205,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C38">
         <v>36.009180000000001</v>
@@ -3222,7 +3222,7 @@
         <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G38" s="2">
         <v>44390</v>
@@ -3277,12 +3277,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>35.953949999999999</v>
@@ -3294,7 +3294,7 @@
         <v>184</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
         <v>44390</v>
@@ -3349,12 +3349,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>35.953949999999999</v>
@@ -3366,7 +3366,7 @@
         <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
         <v>44397</v>
@@ -3418,12 +3418,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>36.009180000000001</v>
@@ -3435,7 +3435,7 @@
         <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G41" s="2">
         <v>44397</v>
@@ -3487,12 +3487,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>36.090589999999999</v>
@@ -3504,7 +3504,7 @@
         <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G42" s="2">
         <v>44397</v>
@@ -3559,12 +3559,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>36.119900000000001</v>
@@ -3576,7 +3576,7 @@
         <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G43" s="2">
         <v>44397</v>
@@ -3631,12 +3631,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>36.144889999999997</v>
@@ -3648,7 +3648,7 @@
         <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G44" s="2">
         <v>44397</v>
@@ -3703,12 +3703,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>36.164360000000002</v>
@@ -3720,7 +3720,7 @@
         <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2">
         <v>44397</v>
@@ -3775,12 +3775,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>36.164360000000002</v>
@@ -3792,7 +3792,7 @@
         <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2">
         <v>44404</v>
@@ -3847,12 +3847,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>36.144889999999997</v>
@@ -3864,7 +3864,7 @@
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47" s="2">
         <v>44404</v>
@@ -3916,12 +3916,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>36.119900000000001</v>
@@ -3933,7 +3933,7 @@
         <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G48" s="2">
         <v>44404</v>
@@ -3988,12 +3988,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>36.090589999999999</v>
@@ -4005,7 +4005,7 @@
         <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G49" s="2">
         <v>44404</v>
@@ -4060,12 +4060,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>36.009180000000001</v>
@@ -4077,7 +4077,7 @@
         <v>166</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G50" s="2">
         <v>44404</v>
@@ -4129,12 +4129,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>35.953949999999999</v>
@@ -4146,7 +4146,7 @@
         <v>184</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G51" s="2">
         <v>44404</v>
@@ -4201,12 +4201,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>35.953949999999999</v>
@@ -4218,7 +4218,7 @@
         <v>184</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G52" s="2">
         <v>44411</v>
@@ -4267,12 +4267,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>36.009180000000001</v>
@@ -4284,7 +4284,7 @@
         <v>166</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G53" s="2">
         <v>44411</v>
@@ -4333,12 +4333,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>36.090589999999999</v>
@@ -4350,7 +4350,7 @@
         <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G54" s="2">
         <v>44411</v>
@@ -4396,12 +4396,12 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>36.119900000000001</v>
@@ -4413,7 +4413,7 @@
         <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" s="2">
         <v>44411</v>
@@ -4462,12 +4462,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>36.144889999999997</v>
@@ -4479,7 +4479,7 @@
         <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2">
         <v>44411</v>
@@ -4528,12 +4528,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>36.164360000000002</v>
@@ -4545,7 +4545,7 @@
         <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G57" s="2">
         <v>44411</v>
@@ -4594,12 +4594,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C58">
         <v>35.942360000000001</v>
@@ -4648,12 +4648,12 @@
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>35.943840000000002</v>
@@ -4702,12 +4702,12 @@
         <v>3.5419999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C60">
         <v>35.94509</v>
@@ -4756,12 +4756,12 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>35.93571</v>
@@ -4810,12 +4810,12 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <v>35.948480000000004</v>
@@ -4864,12 +4864,12 @@
         <v>4.9160000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C63">
         <v>35.951340000000002</v>
@@ -4918,12 +4918,12 @@
         <v>6.5430000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
         <v>42</v>
-      </c>
-      <c r="B64" t="s">
-        <v>71</v>
       </c>
       <c r="C64">
         <v>35.935645559999998</v>
@@ -4969,12 +4969,12 @@
         <v>2.964</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C65">
         <v>35.942354739999999</v>
@@ -5020,12 +5020,12 @@
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>35.944194789999997</v>
@@ -5071,12 +5071,12 @@
         <v>2.673</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C67">
         <v>35.945403079999998</v>
@@ -5119,12 +5119,12 @@
         <v>7.8650000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C68">
         <v>35.948922770000003</v>
@@ -5167,12 +5167,12 @@
         <v>5.3259999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>35.951688130000001</v>
@@ -5218,12 +5218,12 @@
         <v>6.9619999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C70">
         <v>35.951688130000001</v>
@@ -5269,12 +5269,12 @@
         <v>7.0529999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>35.954894369999998</v>
@@ -5320,12 +5320,12 @@
         <v>6.9340000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C72">
         <v>35.945880000000002</v>
@@ -5366,12 +5366,12 @@
         <v>8.6839999999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>35.939050000000002</v>
@@ -5408,12 +5408,12 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C74">
         <v>35.93562</v>
@@ -5457,12 +5457,12 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C75">
         <v>35.942399999999999</v>
@@ -5506,12 +5506,12 @@
         <v>3.5619999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <v>35.95167</v>
@@ -5555,12 +5555,12 @@
         <v>3.2789999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C77">
         <v>35.948500000000003</v>
@@ -5604,12 +5604,12 @@
         <v>1.6160000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15.75">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C78">
         <v>35.95147</v>
@@ -5657,12 +5657,12 @@
         <v>3.5630000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15.75">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C79">
         <v>35.95147</v>
@@ -5710,12 +5710,12 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15.75">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C80">
         <v>35.95147</v>
@@ -5761,12 +5761,12 @@
         <v>3.4039999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15.75">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C81">
         <v>35.95147</v>
@@ -5814,12 +5814,12 @@
         <v>3.4540000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15.75">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C82">
         <v>35.95147</v>
@@ -5867,12 +5867,12 @@
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15.75">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C83">
         <v>35.95147</v>
@@ -5920,12 +5920,12 @@
         <v>3.5920000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15.75">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C84">
         <v>35.95147</v>
@@ -5973,12 +5973,12 @@
         <v>3.6659999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15.75">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C85">
         <v>35.95147</v>
@@ -6026,12 +6026,12 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15.75">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C86">
         <v>35.95147</v>
@@ -6079,12 +6079,12 @@
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15.75">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C87">
         <v>35.95147</v>
@@ -6132,12 +6132,12 @@
         <v>3.4369999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15.75">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C88">
         <v>35.95147</v>
@@ -6185,12 +6185,12 @@
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15.75">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C89">
         <v>35.95147</v>
@@ -6251,7 +6251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6505,9 +6505,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EDA3F62-FCB2-48FF-A869-EB9172F1F846}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EF7E6D-00D8-4573-BC50-F7E23FC68262}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57EC7A9D-00E1-48A6-B402-23FAB2313CCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E652348F-BCCA-4D0A-8D99-E470E34A34AC}"/>
 </file>